--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijisoo/Documents/Github/paper_EM-Bathtub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddsy9\Documents\GitHub\paper_EM-Bathtub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1A72C-F185-3E49-AB1C-E6E942F85A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73396578-A842-4960-8A4E-D237B0C27373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="2060" windowWidth="26180" windowHeight="18320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="44">
   <si>
     <t>data_Name</t>
   </si>
@@ -130,11 +141,56 @@
     <t>Device G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(0.1,1,5)</t>
+  </si>
+  <si>
+    <t>(0.5,1,2)</t>
+  </si>
+  <si>
+    <t>(0.9,1,10)</t>
+  </si>
+  <si>
+    <t>initial Beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1/3,1/3,1/3)</t>
+  </si>
+  <si>
+    <t>(0.25,0.5,0.25)</t>
+  </si>
+  <si>
+    <t>(0.1,0.8,0.1)</t>
+  </si>
+  <si>
+    <t>Initial Pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aarest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -205,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,6 +269,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -499,11 +566,11 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4753,11 +4820,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0274C4-C5F0-A748-AE7D-AC56567C52ED}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="A1:X55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -8851,1432 +8918,2706 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107F6848-E675-1646-A7FA-D70CDF249ED0}">
-  <dimension ref="A4:W24"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:W24"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>4.6266298578734308E-5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.5561668265108399</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>78.550728175830201</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.125366620131696</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.61908036048905901</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.25555301937924402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>5.098880045029118E-5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.5561667586558801</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>78.5483865598015</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.125366619935254</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.61907938735547696</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.25555399270926898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>5.181244009411226E-5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.5561667531175201</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>78.547972217839202</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.125366619855002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.61907921520597897</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.255554164939019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>3.2938684327854477E-5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.5561669150934201</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>78.557436812289595</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.125366621335217</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.61908314773586803</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.25555023092891499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>3.372595647865853E-5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.5561667700036601</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>78.557154984766598</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.125366623174133</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.61908302876104904</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.25555034806481902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>3.9631828057995477E-5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.55616822824668</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>78.552999015500802</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.12536660008411199</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.61908132439502706</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.25555207552086101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>5.3248054959098622E-5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.5561667435951501</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>78.547249920175204</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.125366619713183</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.61907891510856194</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.25555446517825497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>6.0539588980557113E-5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.55616669737485</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>78.543579840262296</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.125366618961187</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.61907739028257402</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.25555599075623903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>6.4471316720160528E-5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.5561666722524901</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>78.541601160548595</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.12536661855877301</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.61907656816924805</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.25555681327197799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>2.0950229833265954</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>78.569939789513995</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.61776886805380204</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.25554896141226902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>2.0950229833265812</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>78.569939789526103</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.61776886805380105</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.25554896141227001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>2.095022983326567</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>78.569939789520106</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.61776886805380005</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.25554896141227201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>2.0950229833265812</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>78.569939789524298</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.61776886805380604</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.25554896141226602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>2.095022983326567</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>78.569939789520106</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.61776886805380005</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.25554896141227201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>2.0950229833265812</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>78.569939789531205</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.61776886805380204</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.25554896141227001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>2.0950229833265741</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>78.569939789531304</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.61776886805380204</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.25554896141226902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>2.0950229833265812</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>78.569939789515104</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.61776886805379905</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.25554896141227301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>2.095022983326567</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.99999995227584804</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>78.569939789520106</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.126682170533928</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.61776886805380005</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.25554896141227201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>7.4855211806834632E-8</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.54775094797190105</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>78.119061413415295</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.19139093535174501</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.55389013409624399</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.25471893055201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>-5.0224609431381799E-6</v>
+      </c>
+      <c r="F29" s="8">
+        <v>9.74565374137444</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3.8098217823354701</v>
+      </c>
+      <c r="I29" s="2">
+        <v>9.5995417099669203E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.35858725385663398</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.545417329043696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>-7.4168776666994097E-6</v>
+      </c>
+      <c r="F30" s="7">
+        <v>9.7457325996898501</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3.80982212729992</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9.5995309893163794E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.35858735203942999</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.545417338067406</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="Q30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.5561668265108399</v>
-      </c>
-      <c r="C5" s="2">
-        <v>78.550728175830201</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0403024735967401</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.5734207913355601E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.1919903961564802E-152</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.1117207738831099E-6</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.5154577804851201E-5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-2.66453525910038E-15</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.39553035064757E+137</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.125366620131696</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.61908036048905901</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.25555301937924402</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="T5" s="2">
-        <v>-215.75320382939</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-4.7513441910166403</v>
-      </c>
-      <c r="V5" s="2">
-        <v>-144.24368489574599</v>
-      </c>
-      <c r="W5" s="2">
-        <v>-21.465954561751701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.5561667586558801</v>
-      </c>
-      <c r="C6" s="2">
-        <v>78.5483865598015</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0403024610937299</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.5734250277054699E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.2254059449973802E-152</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.2242206297585801E-6</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.9764579820532597E-5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4.65176783549188E+136</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.125366619935254</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.61907938735547696</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.25555399270926898</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-215.753218248986</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-4.7513443304323202</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-144.24340720238899</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-21.466203490731701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.5561667531175201</v>
-      </c>
-      <c r="C7" s="2">
-        <v>78.547972217839202</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.04030245855139</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.5734257775086301E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.2313550478336899E-152</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.2321067857090599E-6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5.0580333308403203E-5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4.65176783549188E+136</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.125366619855002</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.61907921520597897</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.255554164939019</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T7" s="2">
-        <v>-215.753220796698</v>
-      </c>
-      <c r="U7" s="2">
-        <v>-4.7513443452667703</v>
-      </c>
-      <c r="V7" s="2">
-        <v>-144.243358073271</v>
-      </c>
-      <c r="W7" s="2">
-        <v>-21.466247539696099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.5561669150934201</v>
-      </c>
-      <c r="C8" s="2">
-        <v>78.557436812289595</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.04030251683215</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.5734086522442998E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.0981605255353201E-152</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9.901218833707761E-7</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3.1948562444483701E-5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-1.7763568394002501E-15</v>
-      </c>
-      <c r="J8" s="3">
-        <v>-1.39553035064757E+137</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.125366621335217</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.61908314773586803</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.25555023092891499</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="T8" s="2">
-        <v>-215.75316266528699</v>
-      </c>
-      <c r="U8" s="2">
-        <v>-4.7513439399272803</v>
-      </c>
-      <c r="V8" s="2">
-        <v>-144.244480329369</v>
-      </c>
-      <c r="W8" s="2">
-        <v>-21.465241481854001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1.5561667700036601</v>
-      </c>
-      <c r="C9" s="2">
-        <v>78.557154984766598</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.04030250469003</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.5734091546998499E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.10204621015824E-152</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.22265749658013E-6</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.2503298982078397E-5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-1.7763568394002501E-15</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-4.65176783549188E+136</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.125366623174133</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.61908302876104904</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.25555034806481902</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T9" s="2">
-        <v>-215.7531645176</v>
-      </c>
-      <c r="U9" s="2">
-        <v>-4.75134427444236</v>
-      </c>
-      <c r="V9" s="2">
-        <v>-144.244446564832</v>
-      </c>
-      <c r="W9" s="2">
-        <v>-21.465271435139201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.55616822824668</v>
-      </c>
-      <c r="C10" s="2">
-        <v>78.552999015500802</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.04030263016053</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.57341676327211E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.1599155313504699E-152</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-1.0523412057317199E-6</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.0684169263727199E-5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-9.3035356709837703E+136</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.12536660008411199</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.61908132439502706</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.25555207552086101</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T10" s="2">
-        <v>-215.753188635762</v>
-      </c>
-      <c r="U10" s="2">
-        <v>-4.7513407033951403</v>
-      </c>
-      <c r="V10" s="2">
-        <v>-144.24395793375101</v>
-      </c>
-      <c r="W10" s="2">
-        <v>-21.465713175196299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.5561667435951501</v>
-      </c>
-      <c r="C11" s="2">
-        <v>78.547249920175204</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.0403024541321799</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.57342708461007E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3.24175201310078E-152</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.2456474660638199E-6</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5.20024074930348E-5</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-8.8817841970012504E-16</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.125366619713183</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.61907891510856194</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.25555446517825497</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="T11" s="2">
-        <v>-215.75322523875101</v>
-      </c>
-      <c r="U11" s="2">
-        <v>-4.75134437080479</v>
-      </c>
-      <c r="V11" s="2">
-        <v>-144.24327242938199</v>
-      </c>
-      <c r="W11" s="2">
-        <v>-21.466324328871799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.55616669737485</v>
-      </c>
-      <c r="C12" s="2">
-        <v>78.543579840262296</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0403024318851699</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.57343372640177E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.2950993123772602E-152</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.3110674870198099E-6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5.9228521493537301E-5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-4.65176783549188E+136</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.125366618961187</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.61907739028257402</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.25555599075623903</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T12" s="2">
-        <v>-215.75324782508</v>
-      </c>
-      <c r="U12" s="2">
-        <v>-4.7513444953019404</v>
-      </c>
-      <c r="V12" s="2">
-        <v>-144.242837260991</v>
-      </c>
-      <c r="W12" s="2">
-        <v>-21.466714528107399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1.5561666722524901</v>
-      </c>
-      <c r="C13" s="2">
-        <v>78.541601160548595</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0403024198706601</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.5734373073226999E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3.3242241986892901E-152</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.34665401074763E-6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6.31246627094129E-5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.12536661855877301</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.61907656816924805</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.25555681327197799</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T13" s="2">
-        <v>-215.75326001467201</v>
-      </c>
-      <c r="U13" s="2">
-        <v>-4.7513445629235598</v>
-      </c>
-      <c r="V13" s="2">
-        <v>-144.24260263942401</v>
-      </c>
-      <c r="W13" s="2">
-        <v>-21.4669249162353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2">
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>-1.05898683848693E-5</v>
+      </c>
+      <c r="F31" s="7">
+        <v>9.74583561695745</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3.8098228048620402</v>
+      </c>
+      <c r="I31" s="2">
+        <v>9.5995169217908405E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.358587488317338</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.54541734246475304</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31">
+        <v>-5.0224609431381799E-6</v>
+      </c>
+      <c r="Q31" s="8">
         <v>9.74565374137444</v>
       </c>
-      <c r="C16" s="2">
+      <c r="R31" s="2">
         <v>3.8098217823354701</v>
       </c>
-      <c r="D16" s="3">
-        <v>9.4060438617112493E-15</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.05757843509623E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2.82846269124893E-10</v>
-      </c>
-      <c r="G16" s="3">
-        <v>-1.58406265526878E-6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>-3.4383982878693999E-6</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>-3.814697265625E-6</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="S31" s="2">
         <v>9.5995417099669203E-2</v>
       </c>
-      <c r="L16" s="2">
+      <c r="T31" s="2">
         <v>0.35858725385663398</v>
       </c>
-      <c r="M16" s="2">
+      <c r="U31" s="2">
         <v>0.545417329043696</v>
       </c>
-      <c r="N16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="T16" s="2">
-        <v>-149.656885262993</v>
-      </c>
-      <c r="U16" s="2">
-        <v>-7.3846660046928898</v>
-      </c>
-      <c r="V16" s="2">
-        <v>-57.016085124800298</v>
-      </c>
-      <c r="W16" s="2">
-        <v>-57.555448268526497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2">
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32">
+        <v>-3.6721055778343713E-6</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.91609892142585203</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3.9847369979235099</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.45563631022555601</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.3956883558540102E-7</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.54436345020560795</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32">
+        <v>-7.4168776666994097E-6</v>
+      </c>
+      <c r="Q32" s="7">
         <v>9.7457325996898501</v>
       </c>
-      <c r="C17" s="2">
+      <c r="R32" s="2">
         <v>3.80982212729992</v>
       </c>
-      <c r="D17" s="3">
-        <v>9.4035353931416407E-15</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.0575788577504099E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2.8284570459860301E-10</v>
-      </c>
-      <c r="G17" s="3">
-        <v>-4.0137834336206896E-6</v>
-      </c>
-      <c r="H17" s="3">
-        <v>-3.4030942330787201E-6</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-6.25E-2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-3.814697265625E-6</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="S32" s="2">
         <v>9.5995309893163794E-2</v>
       </c>
-      <c r="L17" s="2">
+      <c r="T32" s="2">
         <v>0.35858735203942999</v>
       </c>
-      <c r="M17" s="2">
+      <c r="U32" s="2">
         <v>0.545417338067406</v>
       </c>
-      <c r="N17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T17" s="2">
-        <v>-149.656879570266</v>
-      </c>
-      <c r="U17" s="2">
-        <v>-7.3846513723950498</v>
-      </c>
-      <c r="V17" s="2">
-        <v>-57.016099112814402</v>
-      </c>
-      <c r="W17" s="2">
-        <v>-57.555447572148204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2">
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33">
+        <v>-2.6300948690050029E-6</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.91609877109078297</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3.9847321890223801</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.45563614860387502</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2.3971737377627301E-7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.54436361167875102</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33">
+        <v>-1.05898683848693E-5</v>
+      </c>
+      <c r="Q33" s="7">
         <v>9.74583561695745</v>
       </c>
-      <c r="C18" s="2">
+      <c r="R33" s="2">
         <v>3.8098228048620402</v>
       </c>
-      <c r="D18" s="3">
-        <v>9.40025943152694E-15</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.05757940249718E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2.8284459758343299E-10</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-7.1872763349745103E-6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3.40259204989479E-6</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-6.25E-2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="S33" s="2">
         <v>9.5995169217908405E-2</v>
       </c>
-      <c r="L18" s="2">
+      <c r="T33" s="2">
         <v>0.358587488317338</v>
       </c>
-      <c r="M18" s="2">
+      <c r="U33" s="2">
         <v>0.54541734246475304</v>
       </c>
-      <c r="N18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T18" s="2">
-        <v>-149.65687198028601</v>
-      </c>
-      <c r="U18" s="2">
-        <v>-7.3846322071774901</v>
-      </c>
-      <c r="V18" s="2">
-        <v>-57.016118808812102</v>
-      </c>
-      <c r="W18" s="2">
-        <v>-57.555445068480502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34">
+        <v>-1.28843669937595E-5</v>
+      </c>
+      <c r="F34" s="7">
+        <v>9.7459068893447593</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3.8098237827970398</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9.5995070521568193E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.35858760116417998</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.54541732831425205</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34">
+        <v>-3.6721055778343713E-6</v>
+      </c>
+      <c r="Q34" s="7">
         <v>0.91609892142585203</v>
       </c>
-      <c r="C19" s="2">
+      <c r="R34" s="2">
         <v>3.9847369979235099</v>
       </c>
-      <c r="D19" s="2">
-        <v>1.9211183026045998E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.03230645780892E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.0307613760831401E-10</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2.7408051295196898E-7</v>
-      </c>
-      <c r="H19" s="3">
-        <v>-3.9461860907863402E-6</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2.2737367544323201E-13</v>
-      </c>
-      <c r="J19" s="3">
-        <v>-1.52587890625E-5</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="S34" s="2">
         <v>0.45563631022555601</v>
       </c>
-      <c r="L19" s="3">
+      <c r="T34" s="3">
         <v>2.3956883558540102E-7</v>
       </c>
-      <c r="M19" s="2">
+      <c r="U34" s="2">
         <v>0.54436345020560795</v>
       </c>
-      <c r="N19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="T19" s="2">
-        <v>-148.245473959252</v>
-      </c>
-      <c r="U19" s="2">
-        <v>-70.854442033875003</v>
-      </c>
-      <c r="V19" s="3">
-        <v>-3.8214742988971898E-5</v>
-      </c>
-      <c r="W19" s="2">
-        <v>-56.714709565557101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>-2.7371170929768621E-6</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.916098789392915</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3.98473282365741</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.45563616992655698</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2.3979110816474701E-7</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.54436359028233405</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35">
+        <v>-2.6300948690050029E-6</v>
+      </c>
+      <c r="Q35" s="7">
         <v>0.91609877109078297</v>
       </c>
-      <c r="C20" s="2">
+      <c r="R35" s="2">
         <v>3.9847321890223801</v>
       </c>
-      <c r="D20" s="2">
-        <v>1.92112024072034E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.03230609697868E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.03078992892239E-10</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4.8862209922617705E-7</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3.1187169682311799E-6</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1.13686837721616E-13</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="S35" s="2">
         <v>0.45563614860387502</v>
       </c>
-      <c r="L20" s="3">
+      <c r="T35" s="3">
         <v>2.3971737377627301E-7</v>
       </c>
-      <c r="M20" s="2">
+      <c r="U35" s="2">
         <v>0.54436361167875102</v>
       </c>
-      <c r="N20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T20" s="2">
-        <v>-148.245476909263</v>
-      </c>
-      <c r="U20" s="2">
-        <v>-70.8544117728175</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-3.8238436452886597E-5</v>
-      </c>
-      <c r="W20" s="2">
-        <v>-56.714743550396499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>-2.4521996664361757E-6</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.91609874205703301</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3.98473120256349</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.45563611542489202</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2.3967140730333499E-7</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.54436364490370004</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36">
+        <v>-1.28843669937595E-5</v>
+      </c>
+      <c r="Q36" s="7">
         <v>9.7459068893447593</v>
       </c>
-      <c r="C21" s="2">
+      <c r="R36" s="2">
         <v>3.8098237827970398</v>
       </c>
-      <c r="D21" s="3">
-        <v>9.3979936107051798E-15</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.0575797596578999E-2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2.8284300228928599E-10</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-9.3816433004434396E-6</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3.50272369331606E-6</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-6.25E-2</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.814697265625E-6</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="S36" s="2">
         <v>9.5995070521568193E-2</v>
       </c>
-      <c r="L21" s="2">
+      <c r="T36" s="2">
         <v>0.35858760116417998</v>
       </c>
-      <c r="M21" s="2">
+      <c r="U36" s="2">
         <v>0.54541732831425205</v>
       </c>
-      <c r="N21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T21" s="2">
-        <v>-149.656866408826</v>
-      </c>
-      <c r="U21" s="2">
-        <v>-7.38461883692516</v>
-      </c>
-      <c r="V21" s="2">
-        <v>-57.016135727155003</v>
-      </c>
-      <c r="W21" s="2">
-        <v>-57.555439672981898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>-4.9966551856073306E-6</v>
+      </c>
+      <c r="F37" s="7">
+        <v>9.7456447257309105</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3.8098230255650898</v>
+      </c>
+      <c r="I37" s="2">
+        <v>9.59954259417274E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.35858729009066598</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.54541728396760603</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37">
+        <v>-2.7371170929768621E-6</v>
+      </c>
+      <c r="Q37" s="7">
         <v>0.916098789392915</v>
       </c>
-      <c r="C22" s="2">
+      <c r="R37" s="2">
         <v>3.98473282365741</v>
       </c>
-      <c r="D22" s="2">
-        <v>1.9211199977114998E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1.0323061437057799E-2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.03078616084492E-10</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4.9140637514710803E-7</v>
-      </c>
-      <c r="H22" s="3">
-        <v>-3.2285234681239701E-6</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>-1.52587890625E-5</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="S37" s="2">
         <v>0.45563616992655698</v>
       </c>
-      <c r="L22" s="3">
+      <c r="T37" s="3">
         <v>2.3979110816474701E-7</v>
       </c>
-      <c r="M22" s="2">
+      <c r="U37" s="2">
         <v>0.54436359028233405</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="T22" s="2">
-        <v>-148.24547656965399</v>
-      </c>
-      <c r="U22" s="2">
-        <v>-70.854415765530206</v>
-      </c>
-      <c r="V22" s="3">
-        <v>-3.82501982456933E-5</v>
-      </c>
-      <c r="W22" s="2">
-        <v>-56.714739060124799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>0.62911789437738541</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.98444000758553996</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3.9430102662138502</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.109150705226706</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.35901579874094702</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.53183349603234698</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38">
+        <v>-2.4521996664361757E-6</v>
+      </c>
+      <c r="Q38" s="7">
         <v>0.91609874205703301</v>
       </c>
-      <c r="C23" s="2">
+      <c r="R38" s="2">
         <v>3.98473120256349</v>
       </c>
-      <c r="D23" s="2">
-        <v>1.92112062333997E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.03230602401086E-2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.03079578598554E-10</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4.9606452279249403E-7</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2.9482641892286699E-6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1.52587890625E-5</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="S38" s="2">
         <v>0.45563611542489202</v>
       </c>
-      <c r="L23" s="3">
+      <c r="T38" s="3">
         <v>2.3967140730333499E-7</v>
       </c>
-      <c r="M23" s="2">
+      <c r="U38" s="2">
         <v>0.54436364490370004</v>
       </c>
-      <c r="N23" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-      <c r="P23" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="T23" s="2">
-        <v>-148.24547747038699</v>
-      </c>
-      <c r="U23" s="2">
-        <v>-70.854405561033104</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-3.8231104008611802E-5</v>
-      </c>
-      <c r="W23" s="2">
-        <v>-56.714750527918902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2">
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>0.62911789684483521</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.98444000764315798</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3.9430103416300399</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.109150696166035</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.359015812013598</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.53183349182036699</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39">
+        <v>-4.9966551856073306E-6</v>
+      </c>
+      <c r="Q39" s="7">
         <v>9.7456447257309105</v>
       </c>
-      <c r="C24" s="2">
+      <c r="R39" s="2">
         <v>3.8098230255650898</v>
       </c>
-      <c r="D24" s="3">
-        <v>9.4063306464882995E-15</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.0575783333206801E-2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.82844243978733E-10</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-1.3033633479153701E-6</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-3.6932918376919601E-6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-3.814697265625E-6</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="S39" s="2">
         <v>9.59954259417274E-2</v>
       </c>
-      <c r="L24" s="2">
+      <c r="T39" s="2">
         <v>0.35858729009066598</v>
       </c>
-      <c r="M24" s="2">
+      <c r="U39" s="2">
         <v>0.54541728396760603</v>
       </c>
-      <c r="N24" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T24" s="2">
-        <v>-149.65688513529599</v>
-      </c>
-      <c r="U24" s="2">
-        <v>-7.38466740059292</v>
-      </c>
-      <c r="V24" s="2">
-        <v>-57.0160919378975</v>
-      </c>
-      <c r="W24" s="2">
-        <v>-57.555439015132002</v>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>0.62911789682271102</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.98444000764263995</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3.9430103409525201</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.109150696247429</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.35901581189436699</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.53183349185820405</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40">
+        <v>0.62911789437738541</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0.98444000758553996</v>
+      </c>
+      <c r="R40" s="2">
+        <v>3.9430102662138502</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0.109150705226706</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0.35901579874094702</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0.53183349603234698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>1.0492077322510319E-6</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.91609824415809105</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3.9847142486099099</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.45563578434623098</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2.8230798129483899E-14</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.54436421565374105</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41">
+        <v>0.62911789684483521</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0.98444000764315798</v>
+      </c>
+      <c r="R41" s="2">
+        <v>3.9430103416300399</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0.109150696166035</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0.359015812013598</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.53183349182036699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <v>1.0492075901424903E-6</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.91609824415809404</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3.9847142486099498</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.45563578434623198</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2.8242722284236401E-14</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.54436421565374005</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42">
+        <v>0.62911789682271102</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0.98444000764263995</v>
+      </c>
+      <c r="R42" s="2">
+        <v>3.9430103409525201</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0.109150696247429</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0.35901581189436699</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.53183349185820405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>0.62911789684484443</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.98444000764315798</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3.9430103416292899</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.109150696166123</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.35901581201346999</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.53183349182040796</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43">
+        <v>1.0492077322510319E-6</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0.91609824415809105</v>
+      </c>
+      <c r="R43" s="2">
+        <v>3.9847142486099099</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0.45563578434623098</v>
+      </c>
+      <c r="T43" s="3">
+        <v>2.8230798129483899E-14</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.54436421565374105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>1.0492076611967619E-6</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.91609824415809504</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3.9847142486099099</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.45563578434623198</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2.82227155060555E-14</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.54436421565374005</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44">
+        <v>1.0492075901424903E-6</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0.91609824415809404</v>
+      </c>
+      <c r="R44" s="2">
+        <v>3.9847142486099498</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0.45563578434623198</v>
+      </c>
+      <c r="T44" s="3">
+        <v>2.8242722284236401E-14</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0.54436421565374005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>1.0492076896184731E-6</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.91609824415809205</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3.9847142486099298</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.45563578434623198</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2.82163569646255E-14</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.54436421565374005</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45">
+        <v>0.62911789684484443</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0.98444000764315798</v>
+      </c>
+      <c r="R45" s="2">
+        <v>3.9430103416292899</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0.109150696166123</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0.35901581201346999</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0.53183349182040796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>0.6291178968397021</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.98444000764303696</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3.94301034147139</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.10915069618509</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.359015811985686</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.53183349182922501</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46">
+        <v>1.0492076611967619E-6</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0.91609824415809504</v>
+      </c>
+      <c r="R46" s="2">
+        <v>3.9847142486099099</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0.45563578434623198</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2.82227155060555E-14</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0.54436421565374005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47">
+        <v>1.0492076896184731E-6</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0.91609824415809205</v>
+      </c>
+      <c r="R47" s="2">
+        <v>3.9847142486099298</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0.45563578434623198</v>
+      </c>
+      <c r="T47" s="3">
+        <v>2.82163569646255E-14</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.54436421565374005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48">
+        <v>0.6291178968397021</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0.98444000764303696</v>
+      </c>
+      <c r="R48" s="2">
+        <v>3.94301034147139</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0.10915069618509</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0.359015811985686</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0.53183349182922501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P49">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R49" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R50" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R51" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P52">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R52" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P53">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R53" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R54" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R55" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="M56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P56">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R56" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0.53192169270471301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="M57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57">
+        <v>8.643200501978756E-7</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0.89058183004125202</v>
+      </c>
+      <c r="R57" s="2">
+        <v>4.1048133780099096</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0.303032292166936</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0.16504601512835099</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0.53192169270471301</v>
       </c>
     </row>
   </sheetData>
